--- a/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,38</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-34,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,17%</t>
+          <t>-24,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>-12,77%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 0,99</t>
+          <t>-13,22; 1,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 28,83</t>
+          <t>-7,5; 5,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 11,68</t>
+          <t>-7,64; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 26,29</t>
+          <t>-2,32; 9,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 22,46</t>
+          <t>-8,8; 6,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 3,64</t>
+          <t>-62,66; 11,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 187,31</t>
+          <t>-59,12; 101,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 121,31</t>
+          <t>-67,17; 90,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 356,84</t>
+          <t>-38,32; 347,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 171,08</t>
+          <t>-66,13; 125,05</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,25%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,81%</t>
+          <t>-58,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127,79%</t>
+          <t>68,07%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 33,57</t>
+          <t>-8,35; 6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 7,82</t>
+          <t>-22,81; -2,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 15,3</t>
+          <t>-5,36; 4,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 17,51</t>
+          <t>-3,18; 4,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 29,98</t>
+          <t>-2,78; 9,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 158,0</t>
+          <t>-42,64; 55,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,89; 36,78</t>
+          <t>-83,32; -16,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 153,63</t>
+          <t>-57,8; 106,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 402,18</t>
+          <t>-56,49; 285,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 686,26</t>
+          <t>-46,31; 587,67</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,77%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>-35,96%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 28,52</t>
+          <t>-1,18; 10,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 18,67</t>
+          <t>-5,35; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 14,45</t>
+          <t>-0,38; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 10,57</t>
+          <t>-5,65; 3,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 7,28</t>
+          <t>-5,53; 1,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 120,57</t>
+          <t>-9,04; 134,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 250,57</t>
+          <t>-61,79; 126,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 242,44</t>
+          <t>-9,44; 290,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 171,71</t>
+          <t>-65,64; 117,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 98,07</t>
+          <t>-79,28; 56,21</t>
         </is>
       </c>
     </row>
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>46,99%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 19,14</t>
+          <t>-3,27; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 17,32</t>
+          <t>-8,39; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 12,37</t>
+          <t>-3,7; 2,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 14,7</t>
+          <t>-1,61; 4,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 18,46</t>
+          <t>-1,53; 9,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 89,79</t>
+          <t>-30,33; 83,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 117,96</t>
+          <t>-63,75; 85,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 193,85</t>
+          <t>-53,96; 123,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 237,48</t>
+          <t>-35,54; 235,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 138,53</t>
+          <t>-18,72; 218,65</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>62,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>692,69%</t>
+          <t>615,02%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>159,77%</t>
+          <t>173,64%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 25,37</t>
+          <t>-0,67; 9,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 17,88</t>
+          <t>-4,61; 5,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 14,54</t>
+          <t>-3,61; 3,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 22,62</t>
+          <t>1,46; 7,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 28,59</t>
+          <t>0,78; 10,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 202,02</t>
+          <t>-11,98; 264,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 198,29</t>
+          <t>-63,04; 221,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 202,32</t>
+          <t>-60,38; 154,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,19; —</t>
+          <t>27,44; —</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 724,35</t>
+          <t>-2,72; 852,8</t>
         </is>
       </c>
     </row>
@@ -1236,37 +1236,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-21,23%</t>
+          <t>-47,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-66,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>185,07%</t>
+          <t>20,99%</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 16,64</t>
+          <t>-3,22; 0,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 14,76</t>
+          <t>-3,34; 0,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,98</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,59</t>
+          <t>-1,87; 1,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 31,73</t>
+          <t>-1,06; 2,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1356,52 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 13,0</t>
+          <t>-2,28; 1,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 9,2</t>
+          <t>-4,67; 0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,04</t>
+          <t>-1,57; 1,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,45</t>
+          <t>-0,25; 2,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 13,52</t>
+          <t>-1,07; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 49,21</t>
+          <t>-21,07; 22,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 54,84</t>
+          <t>-47,89; 7,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 74,17</t>
+          <t>-28,69; 41,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,88; 150,42</t>
+          <t>-7,4; 118,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,46; 126,26</t>
+          <t>-17,52; 79,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
